--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/TEXAS_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/TEXAS_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1954"/>
+  <dimension ref="A1:D1948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -869,7 +869,7 @@
         <v>17</v>
       </c>
       <c r="D37">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C39">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C42">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C44">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C51">
@@ -1109,14 +1109,14 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C56">
         <v>17</v>
       </c>
       <c r="D56">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="57">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C81">
@@ -1512,7 +1512,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C87">
@@ -1623,7 +1623,7 @@
         <v>17</v>
       </c>
       <c r="D95">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="96">
@@ -1642,20 +1642,20 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C97">
         <v>17</v>
       </c>
       <c r="D97">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C98">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="D134">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="135">
@@ -2200,7 +2200,7 @@
         <v>17</v>
       </c>
       <c r="D139">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="140">
@@ -2258,14 +2258,14 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C144">
         <v>17</v>
       </c>
       <c r="D144">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="145">
@@ -2401,7 +2401,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C155">
@@ -2440,7 +2440,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C158">
@@ -2486,7 +2486,7 @@
         <v>17</v>
       </c>
       <c r="D161">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="162">
@@ -2765,7 +2765,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C183">
@@ -2778,7 +2778,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C184">
@@ -2791,7 +2791,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C185">
@@ -2895,7 +2895,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C193">
@@ -3154,7 +3154,7 @@
         <v>1592</v>
       </c>
       <c r="D212">
-        <v>0.009082299784352431</v>
+        <v>0.009082299784352432</v>
       </c>
     </row>
     <row r="213">
@@ -3323,13 +3323,13 @@
         <v>169</v>
       </c>
       <c r="D225">
-        <v>0.0009641386077610305</v>
+        <v>0.0009641386077610304</v>
       </c>
     </row>
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C226">
@@ -3555,7 +3555,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C243">
@@ -3581,7 +3581,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3638,7 +3638,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C249">
@@ -3838,7 +3838,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C264">
@@ -4014,13 +4014,13 @@
         <v>171</v>
       </c>
       <c r="D277">
-        <v>0.0009755485321132321</v>
+        <v>0.000975548532113232</v>
       </c>
     </row>
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C278">
@@ -4072,7 +4072,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C282">
@@ -4163,7 +4163,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C289">
@@ -4176,7 +4176,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C290">
@@ -4189,7 +4189,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C291">
@@ -4202,7 +4202,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C292">
@@ -4332,12 +4332,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C302">
@@ -4376,7 +4376,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C305">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C306">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C307">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C314">
@@ -4584,7 +4584,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C321">
@@ -4662,7 +4662,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C327">
@@ -4753,7 +4753,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C334">
@@ -4851,13 +4851,13 @@
         <v>17</v>
       </c>
       <c r="D341">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C342">
@@ -4870,7 +4870,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C343">
@@ -5091,7 +5091,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C360">
@@ -5234,7 +5234,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C371">
@@ -5247,7 +5247,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C372">
@@ -5273,7 +5273,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C374">
@@ -5299,7 +5299,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C376">
@@ -5429,7 +5429,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C386">
@@ -5442,7 +5442,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C387">
@@ -5611,7 +5611,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C400">
@@ -5689,7 +5689,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C406">
@@ -5702,7 +5702,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C407">
@@ -5715,7 +5715,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C408">
@@ -5728,7 +5728,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C409">
@@ -5902,7 +5902,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C422">
@@ -5915,7 +5915,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C423">
@@ -5928,7 +5928,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C424">
@@ -6032,7 +6032,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C432">
@@ -6084,7 +6084,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C436">
@@ -6188,7 +6188,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C444">
@@ -6240,7 +6240,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C448">
@@ -6260,13 +6260,13 @@
         <v>1591</v>
       </c>
       <c r="D449">
-        <v>0.009076594822176329</v>
+        <v>0.009076594822176327</v>
       </c>
     </row>
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C450">
@@ -6292,7 +6292,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C452">
@@ -6318,7 +6318,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C454">
@@ -6344,7 +6344,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C456">
@@ -6409,7 +6409,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C461">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C467">
@@ -6531,7 +6531,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C470">
@@ -6544,7 +6544,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C471">
@@ -6596,7 +6596,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C475">
@@ -6609,7 +6609,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C476">
@@ -6635,7 +6635,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C478">
@@ -6648,7 +6648,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C479">
@@ -6687,7 +6687,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C482">
@@ -6700,7 +6700,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C483">
@@ -6713,7 +6713,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C484">
@@ -6726,7 +6726,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C485">
@@ -6791,7 +6791,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C490">
@@ -6804,7 +6804,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C491">
@@ -6856,7 +6856,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C495">
@@ -6869,7 +6869,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C496">
@@ -6947,7 +6947,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C502">
@@ -6960,7 +6960,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C503">
@@ -6986,7 +6986,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C505">
@@ -6999,7 +6999,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C506">
@@ -7025,7 +7025,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C508">
@@ -7064,7 +7064,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C511">
@@ -7233,7 +7233,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C524">
@@ -7259,7 +7259,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C526">
@@ -7285,7 +7285,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C528">
@@ -7311,7 +7311,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C530">
@@ -7363,7 +7363,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C534">
@@ -7376,7 +7376,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C535">
@@ -7537,7 +7537,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C547">
@@ -7628,7 +7628,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C554">
@@ -7641,7 +7641,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C555">
@@ -7719,7 +7719,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C561">
@@ -7797,7 +7797,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C567">
@@ -7849,7 +7849,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C571">
@@ -7888,7 +7888,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C574">
@@ -7979,7 +7979,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C581">
@@ -7992,7 +7992,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C582">
@@ -8005,7 +8005,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C583">
@@ -8018,7 +8018,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C584">
@@ -8044,7 +8044,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C586">
@@ -8057,7 +8057,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C587">
@@ -8070,7 +8070,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C588">
@@ -8103,13 +8103,13 @@
         <v>165</v>
       </c>
       <c r="D590">
-        <v>0.0009413187590566275</v>
+        <v>0.0009413187590566276</v>
       </c>
     </row>
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C591">
@@ -8155,7 +8155,7 @@
         <v>17</v>
       </c>
       <c r="D594">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="595">
@@ -8168,7 +8168,7 @@
         <v>17</v>
       </c>
       <c r="D595">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="596">
@@ -8187,7 +8187,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C597">
@@ -8200,7 +8200,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C598">
@@ -8252,7 +8252,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C602">
@@ -8278,7 +8278,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C604">
@@ -8291,7 +8291,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C605">
@@ -8317,7 +8317,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C607">
@@ -8434,7 +8434,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C616">
@@ -8447,7 +8447,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C617">
@@ -8460,7 +8460,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C618">
@@ -8512,7 +8512,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C622">
@@ -8525,7 +8525,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C623">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C628">
@@ -8608,7 +8608,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C629">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C633">
@@ -8699,7 +8699,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C636">
@@ -8712,7 +8712,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C637">
@@ -8790,7 +8790,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C643">
@@ -8881,7 +8881,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C650">
@@ -8894,7 +8894,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C651">
@@ -9011,7 +9011,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C660">
@@ -9102,7 +9102,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C667">
@@ -9115,7 +9115,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C668">
@@ -9128,7 +9128,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C669">
@@ -9180,7 +9180,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C673">
@@ -9258,7 +9258,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C679">
@@ -9271,7 +9271,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C680">
@@ -9375,7 +9375,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C688">
@@ -9440,7 +9440,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C693">
@@ -9453,7 +9453,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C694">
@@ -9479,7 +9479,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C696">
@@ -9518,7 +9518,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C699">
@@ -9544,7 +9544,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C701">
@@ -9557,7 +9557,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C702">
@@ -9570,7 +9570,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C703">
@@ -9583,7 +9583,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C704">
@@ -9622,7 +9622,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C707">
@@ -9635,7 +9635,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C708">
@@ -9661,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C710">
@@ -9713,7 +9713,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C714">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C715">
@@ -9759,13 +9759,13 @@
         <v>17</v>
       </c>
       <c r="D717">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C718">
@@ -9778,7 +9778,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C719">
@@ -9824,7 +9824,7 @@
         <v>17</v>
       </c>
       <c r="D722">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="723">
@@ -9934,7 +9934,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C731">
@@ -9947,7 +9947,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C732">
@@ -9960,7 +9960,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C733">
@@ -9973,7 +9973,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C734">
@@ -10038,7 +10038,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C739">
@@ -10051,7 +10051,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C740">
@@ -10090,7 +10090,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C743">
@@ -10103,7 +10103,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C744">
@@ -10116,7 +10116,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C745">
@@ -10459,7 +10459,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C771">
@@ -10485,7 +10485,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
         <v>17</v>
       </c>
       <c r="D775">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="776">
@@ -10739,7 +10739,7 @@
         <v>17</v>
       </c>
       <c r="D792">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="793">
@@ -11343,7 +11343,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C839">
@@ -11686,7 +11686,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C865">
@@ -11790,7 +11790,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C873">
@@ -11842,7 +11842,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C877">
@@ -11920,7 +11920,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C883">
@@ -11933,7 +11933,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C884">
@@ -12037,7 +12037,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C892">
@@ -12094,7 +12094,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C896">
@@ -12107,7 +12107,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C897">
@@ -12159,7 +12159,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C901">
@@ -12250,7 +12250,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C908">
@@ -12489,7 +12489,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C926">
@@ -12723,7 +12723,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C944">
@@ -12814,7 +12814,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C951">
@@ -12873,7 +12873,7 @@
         <v>17</v>
       </c>
       <c r="D955">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="956">
@@ -12931,7 +12931,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C960">
@@ -13040,7 +13040,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C968">
@@ -13105,7 +13105,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C973">
@@ -13157,7 +13157,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C977">
@@ -13196,7 +13196,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C980">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C983">
@@ -13274,7 +13274,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C986">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C988">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C989">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C990">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C991">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C992">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C993">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C995">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C996">
@@ -13469,7 +13469,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1001">
@@ -13482,7 +13482,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1002">
@@ -13508,7 +13508,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1004">
@@ -13534,7 +13534,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1006">
@@ -13573,7 +13573,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1009">
@@ -13586,7 +13586,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1010">
@@ -13599,7 +13599,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1011">
@@ -13612,7 +13612,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1012">
@@ -13638,7 +13638,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1014">
@@ -13911,7 +13911,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1035">
@@ -13963,7 +13963,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1039">
@@ -14119,7 +14119,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1051">
@@ -14288,7 +14288,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1064">
@@ -14301,7 +14301,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1065">
@@ -14548,7 +14548,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1084">
@@ -14652,7 +14652,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1092">
@@ -14834,7 +14834,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1106">
@@ -15003,7 +15003,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1119">
@@ -15094,7 +15094,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1126">
@@ -15185,7 +15185,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1133">
@@ -15224,7 +15224,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1136">
@@ -15237,7 +15237,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1137">
@@ -15328,7 +15328,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1144">
@@ -15406,7 +15406,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1150">
@@ -15777,7 +15777,7 @@
         <v>17</v>
       </c>
       <c r="D1178">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="1179">
@@ -15926,7 +15926,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1190">
@@ -15959,7 +15959,7 @@
         <v>17</v>
       </c>
       <c r="D1192">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="1193">
@@ -16121,7 +16121,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1205">
@@ -16134,7 +16134,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1206">
@@ -16147,7 +16147,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1207">
@@ -16160,7 +16160,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1208">
@@ -16173,7 +16173,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1209">
@@ -16186,7 +16186,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1210">
@@ -16199,7 +16199,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1211">
@@ -16212,7 +16212,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1212">
@@ -16238,7 +16238,7 @@
     <row r="1214">
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1214">
@@ -16251,7 +16251,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1215">
@@ -16264,7 +16264,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1216">
@@ -16290,7 +16290,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1218">
@@ -16303,7 +16303,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1219">
@@ -16329,7 +16329,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1221">
@@ -16659,7 +16659,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1246">
@@ -16724,7 +16724,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1251">
@@ -16867,7 +16867,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1262">
@@ -17049,7 +17049,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1276">
@@ -17062,7 +17062,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1277">
@@ -17270,7 +17270,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1293">
@@ -17283,7 +17283,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1294">
@@ -17303,7 +17303,7 @@
         <v>17</v>
       </c>
       <c r="D1295">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="1296">
@@ -17348,7 +17348,7 @@
     <row r="1299">
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1299">
@@ -17361,7 +17361,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1300">
@@ -17413,7 +17413,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1304">
@@ -17543,7 +17543,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1314">
@@ -17556,7 +17556,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1315">
@@ -17712,7 +17712,7 @@
     <row r="1327">
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1327">
@@ -17797,7 +17797,7 @@
         <v>17</v>
       </c>
       <c r="D1333">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="1334">
@@ -17972,7 +17972,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1347">
@@ -18024,7 +18024,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1351">
@@ -18037,7 +18037,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1352">
@@ -18154,7 +18154,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1361">
@@ -18258,7 +18258,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1369">
@@ -18271,7 +18271,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1370">
@@ -18284,7 +18284,7 @@
     <row r="1371">
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1371">
@@ -18349,7 +18349,7 @@
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1376">
@@ -18375,7 +18375,7 @@
     <row r="1378">
       <c r="B1378" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1378">
@@ -18388,7 +18388,7 @@
     <row r="1379">
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1379">
@@ -18453,7 +18453,7 @@
     <row r="1384">
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1384">
@@ -18635,7 +18635,7 @@
     <row r="1398">
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1398">
@@ -18700,7 +18700,7 @@
     <row r="1403">
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1403">
@@ -18804,7 +18804,7 @@
     <row r="1411">
       <c r="B1411" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1411">
@@ -18913,7 +18913,7 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1419">
@@ -18939,7 +18939,7 @@
     <row r="1421">
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1421">
@@ -19017,7 +19017,7 @@
     <row r="1427">
       <c r="B1427" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1427">
@@ -19030,7 +19030,7 @@
     <row r="1428">
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1428">
@@ -19069,7 +19069,7 @@
     <row r="1431">
       <c r="B1431" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1431">
@@ -19108,7 +19108,7 @@
     <row r="1434">
       <c r="B1434" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1434">
@@ -19141,7 +19141,7 @@
         <v>17</v>
       </c>
       <c r="D1436">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="1437">
@@ -19313,7 +19313,7 @@
     <row r="1449">
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1449">
@@ -19326,7 +19326,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1450">
@@ -19391,7 +19391,7 @@
     <row r="1455">
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1455">
@@ -19417,7 +19417,7 @@
     <row r="1457">
       <c r="B1457" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1457">
@@ -19463,7 +19463,7 @@
         <v>17</v>
       </c>
       <c r="D1460">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="1461">
@@ -19560,7 +19560,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1468">
@@ -19638,7 +19638,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1474">
@@ -19716,7 +19716,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1480">
@@ -19742,7 +19742,7 @@
     <row r="1482">
       <c r="B1482" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1482">
@@ -19775,7 +19775,7 @@
         <v>158</v>
       </c>
       <c r="D1484">
-        <v>0.0009013840238239221</v>
+        <v>0.000901384023823922</v>
       </c>
     </row>
     <row r="1485">
@@ -19846,7 +19846,7 @@
     <row r="1490">
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1490">
@@ -19898,7 +19898,7 @@
     <row r="1494">
       <c r="B1494" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1494">
@@ -19911,7 +19911,7 @@
     <row r="1495">
       <c r="B1495" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1495">
@@ -19924,7 +19924,7 @@
     <row r="1496">
       <c r="B1496" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1496">
@@ -19937,7 +19937,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1497">
@@ -19950,7 +19950,7 @@
     <row r="1498">
       <c r="B1498" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1498">
@@ -19963,7 +19963,7 @@
     <row r="1499">
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1499">
@@ -20519,7 +20519,7 @@
     <row r="1541">
       <c r="B1541" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1541">
@@ -20771,7 +20771,7 @@
     <row r="1560">
       <c r="B1560" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1560">
@@ -21361,14 +21361,14 @@
     <row r="1605">
       <c r="B1605" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1605">
         <v>165</v>
       </c>
       <c r="D1605">
-        <v>0.0009413187590566275</v>
+        <v>0.0009413187590566276</v>
       </c>
     </row>
     <row r="1606">
@@ -21470,7 +21470,7 @@
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1613">
@@ -21496,7 +21496,7 @@
     <row r="1615">
       <c r="B1615" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1615">
@@ -21509,7 +21509,7 @@
     <row r="1616">
       <c r="B1616" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1616">
@@ -21574,7 +21574,7 @@
     <row r="1621">
       <c r="B1621" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1621">
@@ -21652,7 +21652,7 @@
     <row r="1627">
       <c r="B1627" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1627">
@@ -21704,7 +21704,7 @@
     <row r="1631">
       <c r="B1631" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1631">
@@ -21717,7 +21717,7 @@
     <row r="1632">
       <c r="B1632" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1632">
@@ -21730,7 +21730,7 @@
     <row r="1633">
       <c r="B1633" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1633">
@@ -21769,7 +21769,7 @@
     <row r="1636">
       <c r="B1636" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1636">
@@ -21795,7 +21795,7 @@
     <row r="1638">
       <c r="B1638" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1638">
@@ -21847,7 +21847,7 @@
     <row r="1642">
       <c r="B1642" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1642">
@@ -21886,7 +21886,7 @@
     <row r="1645">
       <c r="B1645" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1645">
@@ -22138,7 +22138,7 @@
     <row r="1664">
       <c r="B1664" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1664">
@@ -22190,7 +22190,7 @@
     <row r="1668">
       <c r="B1668" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1668">
@@ -22333,7 +22333,7 @@
     <row r="1679">
       <c r="B1679" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1679">
@@ -22359,7 +22359,7 @@
     <row r="1681">
       <c r="B1681" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1681">
@@ -22411,7 +22411,7 @@
     <row r="1685">
       <c r="B1685" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1685">
@@ -22437,7 +22437,7 @@
     <row r="1687">
       <c r="B1687" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1687">
@@ -22541,7 +22541,7 @@
     <row r="1695">
       <c r="B1695" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1695">
@@ -22574,7 +22574,7 @@
         <v>17</v>
       </c>
       <c r="D1697">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="1698">
@@ -22723,7 +22723,7 @@
     <row r="1709">
       <c r="B1709" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1709">
@@ -22736,7 +22736,7 @@
     <row r="1710">
       <c r="B1710" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1710">
@@ -22957,7 +22957,7 @@
     <row r="1727">
       <c r="B1727" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1727">
@@ -22970,7 +22970,7 @@
     <row r="1728">
       <c r="B1728" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1728">
@@ -22983,7 +22983,7 @@
     <row r="1729">
       <c r="B1729" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1729">
@@ -23035,7 +23035,7 @@
     <row r="1733">
       <c r="B1733" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1733">
@@ -23048,7 +23048,7 @@
     <row r="1734">
       <c r="B1734" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1734">
@@ -23061,7 +23061,7 @@
     <row r="1735">
       <c r="B1735" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1735">
@@ -23074,7 +23074,7 @@
     <row r="1736">
       <c r="B1736" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1736">
@@ -23204,7 +23204,7 @@
     <row r="1746">
       <c r="B1746" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1746">
@@ -23269,7 +23269,7 @@
     <row r="1751">
       <c r="B1751" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1751">
@@ -23282,7 +23282,7 @@
     <row r="1752">
       <c r="B1752" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1752">
@@ -23347,7 +23347,7 @@
     <row r="1757">
       <c r="B1757" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1757">
@@ -23386,7 +23386,7 @@
     <row r="1760">
       <c r="B1760" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1760">
@@ -23432,7 +23432,7 @@
         <v>163</v>
       </c>
       <c r="D1763">
-        <v>0.0009299088347044259</v>
+        <v>0.000929908834704426</v>
       </c>
     </row>
     <row r="1764">
@@ -23451,7 +23451,7 @@
     <row r="1765">
       <c r="B1765" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1765">
@@ -23594,7 +23594,7 @@
     <row r="1776">
       <c r="B1776" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1776">
@@ -23646,7 +23646,7 @@
     <row r="1780">
       <c r="B1780" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1780">
@@ -23659,7 +23659,7 @@
     <row r="1781">
       <c r="B1781" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1781">
@@ -23711,7 +23711,7 @@
     <row r="1785">
       <c r="B1785" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1785">
@@ -23828,7 +23828,7 @@
     <row r="1794">
       <c r="B1794" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1794">
@@ -23880,7 +23880,7 @@
     <row r="1798">
       <c r="B1798" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1798">
@@ -24186,7 +24186,7 @@
         <v>171</v>
       </c>
       <c r="D1821">
-        <v>0.0009755485321132321</v>
+        <v>0.000975548532113232</v>
       </c>
     </row>
     <row r="1822">
@@ -24257,7 +24257,7 @@
     <row r="1827">
       <c r="B1827" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1827">
@@ -24400,7 +24400,7 @@
     <row r="1838">
       <c r="B1838" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1838">
@@ -24543,7 +24543,7 @@
     <row r="1849">
       <c r="B1849" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1849">
@@ -24556,7 +24556,7 @@
     <row r="1850">
       <c r="B1850" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1850">
@@ -25151,7 +25151,7 @@
     <row r="1895">
       <c r="B1895" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1895">
@@ -25177,7 +25177,7 @@
     <row r="1897">
       <c r="B1897" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1897">
@@ -25203,7 +25203,7 @@
     <row r="1899">
       <c r="B1899" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1899">
@@ -25223,7 +25223,7 @@
         <v>17</v>
       </c>
       <c r="D1900">
-        <v>9.698435699371313E-05</v>
+        <v>9.698435699371312E-05</v>
       </c>
     </row>
     <row r="1901">
@@ -25346,7 +25346,7 @@
     <row r="1910">
       <c r="B1910" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1910">
@@ -25437,7 +25437,7 @@
     <row r="1917">
       <c r="B1917" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1917">
@@ -25502,7 +25502,7 @@
     <row r="1922">
       <c r="B1922" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1922">
@@ -25515,7 +25515,7 @@
     <row r="1923">
       <c r="B1923" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1923">
@@ -25528,7 +25528,7 @@
     <row r="1924">
       <c r="B1924" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1924">
@@ -25671,7 +25671,7 @@
     <row r="1935">
       <c r="B1935" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1935">
@@ -25684,7 +25684,7 @@
     <row r="1936">
       <c r="B1936" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1936">
@@ -25710,7 +25710,7 @@
     <row r="1938">
       <c r="B1938" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1938">
@@ -25749,7 +25749,7 @@
     <row r="1941">
       <c r="B1941" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1941">
@@ -25848,41 +25848,6 @@
       </c>
       <c r="D1948">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1950">
-      <c r="A1950" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1951">
-      <c r="A1951" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1952">
-      <c r="A1952" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1953">
-      <c r="A1953" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1954">
-      <c r="A1954" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
